--- a/3semJava/Labs/Lab1/SumOFRow/rowsum.xlsx
+++ b/3semJava/Labs/Lab1/SumOFRow/rowsum.xlsx
@@ -25,7 +25,7 @@
       <style:table-column-properties fo:break-before="auto" style:column-width="0.2618in"/>
     </style:style>
     <style:style style:name="co2" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="1.6327in"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="3.6189in"/>
     </style:style>
     <style:style style:name="co3" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="1.4071in"/>
@@ -55,16 +55,16 @@
           <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
             <text:p>1</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A1]*([.A1]+1)*[.$H$1]^[.A1]/3^[.A1]" office:value-type="float" office:value="-1.33333333333333" calcext:value-type="float">
-            <text:p>-1.33333333333333</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B1])" office:value-type="float" office:value="-1.33333333333333" calcext:value-type="float">
-            <text:p>-1.33333333333333</text:p>
+          <table:table-cell table:formula="of:=(((-1)^([.A1] + 1) * [.$H$1]*[.$H$1])/FACT(2 * [.A1] + 1)) * (4/3)^(4*[.A1]+ 2)" office:value-type="float" office:value="0.00458856881572931" calcext:value-type="float">
+            <text:p>0.00458856881572931</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=SUM([.$B$1:.B1])" office:value-type="float" office:value="0.00458856881572931" calcext:value-type="float">
+            <text:p>0.00458856881572931</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce1"/>
-          <table:table-cell table:style-name="ce1" office:value-type="float" office:value="2" calcext:value-type="float">
-            <text:p>2</text:p>
+          <table:table-cell table:style-name="ce1" office:value-type="float" office:value="0.07" calcext:value-type="float">
+            <text:p>0.07</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce1"/>
         </table:table-row>
@@ -72,11 +72,11 @@
           <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A2]*([.A2]+1)*[.$H$1]^[.A2]/3^[.A2]" office:value-type="float" office:value="1.33333333333333" calcext:value-type="float">
-            <text:p>1.33333333333333</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B2])" office:value-type="float" office:value="0" calcext:value-type="float">
-            <text:p>0</text:p>
+          <table:table-cell table:formula="of:=(((-1)^([.A2] + 1) * [.$H$1]*[.$H$1])/FACT(2 * [.A2]+ 1)) * (4/3)^(4*[.A2]+ 2)" office:value-type="float" office:value="-0.000725107170880681" calcext:value-type="float">
+            <text:p>-0.000725107170880681</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=SUM([.$B$1:.B2])" office:value-type="float" office:value="0.00386346164484863" calcext:value-type="float">
+            <text:p>0.00386346164484863</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="3"/>
           <table:table-cell table:style-name="ce1" table:number-columns-repeated="3"/>
@@ -85,11 +85,11 @@
           <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
             <text:p>3</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A3]*([.A3]+1)*[.$H$1]^[.A3]/3^[.A3]" office:value-type="float" office:value="-1.18518518518519" calcext:value-type="float">
-            <text:p>-1.18518518518519</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B3])" office:value-type="float" office:value="-1.18518518518519" calcext:value-type="float">
-            <text:p>-1.18518518518519</text:p>
+          <table:table-cell table:formula="of:=(((-1)^([.A3] + 1) * [.$H$1]*[.$H$1])/FACT(2 * [.A3]+ 1)) * (4/3)^(4*[.A3]+ 2)" office:value-type="float" office:value="0.0000545642080380524" calcext:value-type="float">
+            <text:p>5.45642080380524E-05</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=SUM([.$B$1:.B3])" office:value-type="float" office:value="0.00391802585288668" calcext:value-type="float">
+            <text:p>0.00391802585288668</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="6"/>
         </table:table-row>
@@ -97,11 +97,11 @@
           <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
             <text:p>4</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A4]*([.A4]+1)*[.$H$1]^[.A4]/3^[.A4]" office:value-type="float" office:value="0.987654320987654" calcext:value-type="float">
-            <text:p>0.987654320987654</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B4])" office:value-type="float" office:value="-0.197530864197531" calcext:value-type="float">
-            <text:p>-0.197530864197531</text:p>
+          <table:table-cell table:formula="of:=(((-1)^([.A4] + 1) * [.$H$1]*[.$H$1])/FACT(2 * [.A4]+ 1)) * (4/3)^(4*[.A4]+ 2)" office:value-type="float" office:value="-0.0000023951367040023" calcext:value-type="float">
+            <text:p>-2.3951367040023E-06</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=SUM([.$B$1:.B4])" office:value-type="float" office:value="0.00391563071618268" calcext:value-type="float">
+            <text:p>0.00391563071618268</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="6"/>
         </table:table-row>
@@ -109,11 +109,11 @@
           <table:table-cell office:value-type="float" office:value="5" calcext:value-type="float">
             <text:p>5</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A5]*([.A5]+1)*[.$H$1]^[.A5]/3^[.A5]" office:value-type="float" office:value="-0.790123456790123" calcext:value-type="float">
-            <text:p>-0.790123456790123</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B5])" office:value-type="float" office:value="-0.987654320987654" calcext:value-type="float">
-            <text:p>-0.987654320987654</text:p>
+          <table:table-cell table:formula="of:=(((-1)^([.A5] + 1) * [.$H$1]*[.$H$1])/FACT(2 * [.A5]+ 1)) * (4/3)^(4*[.A5]+ 2)" office:value-type="float" office:value="0.0000000688164978927709" calcext:value-type="float">
+            <text:p>6.88164978927709E-08</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=SUM([.$B$1:.B5])" office:value-type="float" office:value="0.00391569953268057" calcext:value-type="float">
+            <text:p>0.00391569953268057</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="6"/>
         </table:table-row>
@@ -121,11 +121,11 @@
           <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
             <text:p>6</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A6]*([.A6]+1)*[.$H$1]^[.A6]/3^[.A6]" office:value-type="float" office:value="0.614540466392318" calcext:value-type="float">
-            <text:p>0.614540466392318</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B6])" office:value-type="float" office:value="-0.373113854595336" calcext:value-type="float">
-            <text:p>-0.373113854595336</text:p>
+          <table:table-cell table:formula="of:=(((-1)^([.A6] + 1) * [.$H$1]*[.$H$1])/FACT(2 * [.A6]+ 1)) * (4/3)^(4*[.A6]+ 2)" office:value-type="float" office:value="-0.00000000139419305639042" calcext:value-type="float">
+            <text:p>-1.39419305639042E-09</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=SUM([.$B$1:.B6])" office:value-type="float" office:value="0.00391569813848751" calcext:value-type="float">
+            <text:p>0.00391569813848751</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="6"/>
         </table:table-row>
@@ -133,11 +133,11 @@
           <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
             <text:p>7</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A7]*([.A7]+1)*[.$H$1]^[.A7]/3^[.A7]" office:value-type="float" office:value="-0.468221307727481" calcext:value-type="float">
-            <text:p>-0.468221307727481</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B7])" office:value-type="float" office:value="-0.841335162322817" calcext:value-type="float">
-            <text:p>-0.841335162322817</text:p>
+          <table:table-cell table:formula="of:=(((-1)^([.A7] + 1) * [.$H$1]*[.$H$1])/FACT(2 * [.A7]+ 1)) * (4/3)^(4*[.A7]+ 2)" office:value-type="float" office:value="0.0000000000209825645171045" calcext:value-type="float">
+            <text:p>2.09825645171045E-11</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=SUM([.$B$1:.B7])" office:value-type="float" office:value="0.00391569815947008" calcext:value-type="float">
+            <text:p>0.00391569815947008</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="6"/>
         </table:table-row>
@@ -145,11 +145,11 @@
           <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
             <text:p>8</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A8]*([.A8]+1)*[.$H$1]^[.A8]/3^[.A8]" office:value-type="float" office:value="0.35116598079561" calcext:value-type="float">
-            <text:p>0.35116598079561</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B8])" office:value-type="float" office:value="-0.490169181527206" calcext:value-type="float">
-            <text:p>-0.490169181527206</text:p>
+          <table:table-cell table:formula="of:=(((-1)^([.A8] + 1) * [.$H$1]*[.$H$1])/FACT(2 * [.A8]+ 1)) * (4/3)^(4*[.A8]+ 2)" office:value-type="float" office:value="-0.000000000000243806123655535" calcext:value-type="float">
+            <text:p>-2.43806123655535E-13</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=SUM([.$B$1:.B8])" office:value-type="float" office:value="0.00391569815922627" calcext:value-type="float">
+            <text:p>0.00391569815922627</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="6"/>
         </table:table-row>
@@ -157,11 +157,11 @@
           <table:table-cell office:value-type="float" office:value="9" calcext:value-type="float">
             <text:p>9</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A9]*([.A9]+1)*[.$H$1]^[.A9]/3^[.A9]" office:value-type="float" office:value="-0.260122948737489" calcext:value-type="float">
-            <text:p>-0.260122948737489</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B9])" office:value-type="float" office:value="-0.750292130264695" calcext:value-type="float">
-            <text:p>-0.750292130264695</text:p>
+          <table:table-cell table:formula="of:=(((-1)^([.A9] + 1) * [.$H$1]*[.$H$1])/FACT(2 * [.A9]+ 1)) * (4/3)^(4*[.A9]+ 2)" office:value-type="float" office:value="2.25306359309136E-015" calcext:value-type="float">
+            <text:p>2.25306359309136E-15</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=SUM([.$B$1:.B9])" office:value-type="float" office:value="0.00391569815922853" calcext:value-type="float">
+            <text:p>0.00391569815922853</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="6"/>
         </table:table-row>
@@ -169,11 +169,11 @@
           <table:table-cell office:value-type="float" office:value="10" calcext:value-type="float">
             <text:p>10</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A10]*([.A10]+1)*[.$H$1]^[.A10]/3^[.A10]" office:value-type="float" office:value="0.190756829074159" calcext:value-type="float">
-            <text:p>0.190756829074159</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B10])" office:value-type="float" office:value="-0.559535301190537" calcext:value-type="float">
-            <text:p>-0.559535301190537</text:p>
+          <table:table-cell table:formula="of:=(((-1)^([.A10] + 1) * [.$H$1]*[.$H$1])/FACT(2 * [.A10]+ 1)) * (4/3)^(4*[.A10]+ 2)" office:value-type="float" office:value="-1.69542704242031E-017" calcext:value-type="float">
+            <text:p>-1.69542704242031E-17</text:p>
+          </table:table-cell>
+          <table:table-cell table:formula="of:=SUM([.$B$1:.B10])" office:value-type="float" office:value="0.00391569815922851" calcext:value-type="float">
+            <text:p>0.00391569815922851</text:p>
           </table:table-cell>
           <table:table-cell table:number-columns-repeated="6"/>
         </table:table-row>
@@ -181,241 +181,121 @@
           <table:table-cell office:value-type="float" office:value="11" calcext:value-type="float">
             <text:p>11</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A11]*([.A11]+1)*[.$H$1]^[.A11]/3^[.A11]" office:value-type="float" office:value="-0.138732239326661" calcext:value-type="float">
-            <text:p>-0.138732239326661</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B11])" office:value-type="float" office:value="-0.698267540517198" calcext:value-type="float">
-            <text:p>-0.698267540517198</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="12" calcext:value-type="float">
             <text:p>12</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A12]*([.A12]+1)*[.$H$1]^[.A12]/3^[.A12]" office:value-type="float" office:value="0.100195506180366" calcext:value-type="float">
-            <text:p>0.100195506180366</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B12])" office:value-type="float" office:value="-0.598072034336831" calcext:value-type="float">
-            <text:p>-0.598072034336831</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="13" calcext:value-type="float">
             <text:p>13</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A13]*([.A13]+1)*[.$H$1]^[.A13]/3^[.A13]" office:value-type="float" office:value="-0.0719352352064168" calcext:value-type="float">
-            <text:p>-0.0719352352064168</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B13])" office:value-type="float" office:value="-0.670007269543248" calcext:value-type="float">
-            <text:p>-0.670007269543248</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="14" calcext:value-type="float">
             <text:p>14</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A14]*([.A14]+1)*[.$H$1]^[.A14]/3^[.A14]" office:value-type="float" office:value="0.0513823108617263" calcext:value-type="float">
-            <text:p>0.0513823108617263</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B14])" office:value-type="float" office:value="-0.618624958681522" calcext:value-type="float">
-            <text:p>-0.618624958681522</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="15" calcext:value-type="float">
             <text:p>15</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A15]*([.A15]+1)*[.$H$1]^[.A15]/3^[.A15]" office:value-type="float" office:value="-0.0365385321683387" calcext:value-type="float">
-            <text:p>-0.0365385321683387</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B15])" office:value-type="float" office:value="-0.655163490849861" calcext:value-type="float">
-            <text:p>-0.655163490849861</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="16" calcext:value-type="float">
             <text:p>16</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A16]*([.A16]+1)*[.$H$1]^[.A16]/3^[.A16]" office:value-type="float" office:value="0.0258814602859066" calcext:value-type="float">
-            <text:p>0.0258814602859066</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B16])" office:value-type="float" office:value="-0.629282030563954" calcext:value-type="float">
-            <text:p>-0.629282030563954</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="17" calcext:value-type="float">
             <text:p>17</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A17]*([.A17]+1)*[.$H$1]^[.A17]/3^[.A17]" office:value-type="float" office:value="-0.0182692660841693" calcext:value-type="float">
-            <text:p>-0.0182692660841693</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B17])" office:value-type="float" office:value="-0.647551296648123" calcext:value-type="float">
-            <text:p>-0.647551296648123</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="18" calcext:value-type="float">
             <text:p>18</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A18]*([.A18]+1)*[.$H$1]^[.A18]/3^[.A18]" office:value-type="float" office:value="0.0128561502073784" calcext:value-type="float">
-            <text:p>0.0128561502073784</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B18])" office:value-type="float" office:value="-0.634695146440745" calcext:value-type="float">
-            <text:p>-0.634695146440745</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="19" calcext:value-type="float">
             <text:p>19</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A19]*([.A19]+1)*[.$H$1]^[.A19]/3^[.A19]" office:value-type="float" office:value="-0.00902185979465153" calcext:value-type="float">
-            <text:p>-0.00902185979465153</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B19])" office:value-type="float" office:value="-0.643717006235396" calcext:value-type="float">
-            <text:p>-0.643717006235396</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="20" calcext:value-type="float">
             <text:p>20</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A20]*([.A20]+1)*[.$H$1]^[.A20]/3^[.A20]" office:value-type="float" office:value="0.00631530185625607" calcext:value-type="float">
-            <text:p>0.00631530185625607</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B20])" office:value-type="float" office:value="-0.63740170437914" calcext:value-type="float">
-            <text:p>-0.63740170437914</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="21" calcext:value-type="float">
             <text:p>21</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A21]*([.A21]+1)*[.$H$1]^[.A21]/3^[.A21]" office:value-type="float" office:value="-0.00441068701071852" calcext:value-type="float">
-            <text:p>-0.00441068701071852</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B21])" office:value-type="float" office:value="-0.641812391389859" calcext:value-type="float">
-            <text:p>-0.641812391389859</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="22" calcext:value-type="float">
             <text:p>22</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A22]*([.A22]+1)*[.$H$1]^[.A22]/3^[.A22]" office:value-type="float" office:value="0.00307411518928867" calcext:value-type="float">
-            <text:p>0.00307411518928867</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B22])" office:value-type="float" office:value="-0.63873827620057" calcext:value-type="float">
-            <text:p>-0.63873827620057</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="23" calcext:value-type="float">
             <text:p>23</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A23]*([.A23]+1)*[.$H$1]^[.A23]/3^[.A23]" office:value-type="float" office:value="-0.00213851491428777" calcext:value-type="float">
-            <text:p>-0.00213851491428777</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B23])" office:value-type="float" office:value="-0.640876791114858" calcext:value-type="float">
-            <text:p>-0.640876791114858</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="24" calcext:value-type="float">
             <text:p>24</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A24]*([.A24]+1)*[.$H$1]^[.A24]/3^[.A24]" office:value-type="float" office:value="0.00148507980158873" calcext:value-type="float">
-            <text:p>0.00148507980158873</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B24])" office:value-type="float" office:value="-0.639391711313269" calcext:value-type="float">
-            <text:p>-0.639391711313269</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="25" calcext:value-type="float">
             <text:p>25</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A25]*([.A25]+1)*[.$H$1]^[.A25]/3^[.A25]" office:value-type="float" office:value="-0.00102965532910152" calcext:value-type="float">
-            <text:p>-0.00102965532910152</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B25])" office:value-type="float" office:value="-0.640421366642371" calcext:value-type="float">
-            <text:p>-0.640421366642371</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="26" calcext:value-type="float">
             <text:p>26</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A26]*([.A26]+1)*[.$H$1]^[.A26]/3^[.A26]" office:value-type="float" office:value="0.00071283830476259" calcext:value-type="float">
-            <text:p>0.00071283830476259</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B26])" office:value-type="float" office:value="-0.639708528337608" calcext:value-type="float">
-            <text:p>-0.639708528337608</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="27" calcext:value-type="float">
             <text:p>27</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A27]*([.A27]+1)*[.$H$1]^[.A27]/3^[.A27]" office:value-type="float" office:value="-0.000492826482305" calcext:value-type="float">
-            <text:p>-0.000492826482305</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B27])" office:value-type="float" office:value="-0.640201354819913" calcext:value-type="float">
-            <text:p>-0.640201354819913</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="28" calcext:value-type="float">
             <text:p>28</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A28]*([.A28]+1)*[.$H$1]^[.A28]/3^[.A28]" office:value-type="float" office:value="0.000340284952067738" calcext:value-type="float">
-            <text:p>0.000340284952067738</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B28])" office:value-type="float" office:value="-0.639861069867845" calcext:value-type="float">
-            <text:p>-0.639861069867845</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="29" calcext:value-type="float">
             <text:p>29</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A29]*([.A29]+1)*[.$H$1]^[.A29]/3^[.A29]" office:value-type="float" office:value="-0.000234679277288095" calcext:value-type="float">
-            <text:p>-0.000234679277288095</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B29])" office:value-type="float" office:value="-0.640095749145133" calcext:value-type="float">
-            <text:p>-0.640095749145133</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell office:value-type="float" office:value="30" calcext:value-type="float">
             <text:p>30</text:p>
           </table:table-cell>
-          <table:table-cell table:formula="of:=(-1)^[.A30]*([.A30]+1)*[.$H$1]^[.A30]/3^[.A30]" office:value-type="float" office:value="0.000161667946576243" calcext:value-type="float">
-            <text:p>0.000161667946576243</text:p>
-          </table:table-cell>
-          <table:table-cell table:formula="of:=SUM([.$B$1:.B30])" office:value-type="float" office:value="-0.639934081198557" calcext:value-type="float">
-            <text:p>-0.639934081198557</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="6"/>
+          <table:table-cell table:number-columns-repeated="8"/>
         </table:table-row>
       </table:table>
       <table:named-expressions/>
@@ -428,11 +308,11 @@
 <office:document-meta xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:ooo="http://openoffice.org/2004/office" xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" office:version="1.3">
   <office:meta>
     <meta:creation-date>2024-09-02T12:18:50.408554595</meta:creation-date>
-    <dc:date>2024-09-02T13:15:51.456970747</dc:date>
-    <meta:editing-duration>PT40M20S</meta:editing-duration>
-    <meta:editing-cycles>2</meta:editing-cycles>
+    <dc:date>2024-09-09T14:55:09.509136651</dc:date>
+    <meta:editing-duration>PT1H28M56S</meta:editing-duration>
+    <meta:editing-cycles>4</meta:editing-cycles>
     <meta:generator>LibreOffice/24.2.5.2$Linux_X86_64 LibreOffice_project/d6e8b0f3fc6e8af2b00cf4969fd0d2fa45b9a62e</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="91" meta:object-count="0"/>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="51" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -443,15 +323,15 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">21932</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">26977</config:config-item>
       <config:config-item config:name="VisibleAreaHeight" config:type="int">13547</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">16</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">19</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">6</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">17</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
@@ -507,6 +387,15 @@
       <config:config-item config:name="EmbedFonts" config:type="boolean">false</config:config-item>
       <config:config-item config:name="EmbedLatinScriptFonts" config:type="boolean">true</config:config-item>
       <config:config-item config:name="EmbedOnlyUsedFonts" config:type="boolean">false</config:config-item>
+      <config:config-item-map-indexed config:name="ForbiddenCharacters">
+        <config:config-item-map-entry>
+          <config:config-item config:name="Language" config:type="string">en</config:config-item>
+          <config:config-item config:name="Country" config:type="string">US</config:config-item>
+          <config:config-item config:name="Variant" config:type="string"/>
+          <config:config-item config:name="BeginLine" config:type="string"/>
+          <config:config-item config:name="EndLine" config:type="string"/>
+        </config:config-item-map-entry>
+      </config:config-item-map-indexed>
       <config:config-item config:name="GridColor" config:type="int">12632256</config:config-item>
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
@@ -520,7 +409,7 @@
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">tAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAoAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsJzAsMApjb2xvcmRlcHRoPTI0CmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmYMAFBSSU5URVJfTkFNRQ8AR2VuZXJpYyBQcmludGVyCwBEUklWRVJfTkFNRQcAU0dFTlBSVA==</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">wAH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMArAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luYWRqdXN0bWVudD0wLDAsJzAsMApjb2xvcmRlcHRoPTI0CmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4dERhdGEKRHVwbGV4Ok5vbmUAUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmYMAFBSSU5URVJfTkFNRQ8AR2VuZXJpYyBQcmludGVyCwBEUklWRVJfTkFNRQcAU0dFTlBSVA==</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1270</config:config-item>
       <config:config-item config:name="RasterResolutionY" config:type="int">1270</config:config-item>
@@ -718,9 +607,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2024-09-02">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2024-09-09">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="13:14:31.730370891">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="13:42:37.647499030">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
